--- a/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>50228</v>
+        <v>50229</v>
       </c>
       <c r="D74" t="n">
         <v>9675</v>
       </c>
       <c r="E74" t="n">
-        <v>249887928</v>
+        <v>249889845</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -7795,13 +7795,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D145" t="n">
         <v>225</v>
       </c>
       <c r="E145" t="n">
-        <v>7286063</v>
+        <v>7370100</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>56180</v>
+        <v>56181</v>
       </c>
       <c r="D201" t="n">
         <v>13193</v>
       </c>
       <c r="E201" t="n">
-        <v>111926430</v>
+        <v>111929074</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -15547,13 +15547,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>12890</v>
+        <v>12891</v>
       </c>
       <c r="D297" t="n">
         <v>1973</v>
       </c>
       <c r="E297" t="n">
-        <v>74448110</v>
+        <v>74449610</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -21004,13 +21004,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>29543</v>
+        <v>29544</v>
       </c>
       <c r="D404" t="n">
         <v>3814</v>
       </c>
       <c r="E404" t="n">
-        <v>56432511</v>
+        <v>56437349</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -21208,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9344</v>
+        <v>9345</v>
       </c>
       <c r="D408" t="n">
         <v>1304</v>
       </c>
       <c r="E408" t="n">
-        <v>23829850</v>
+        <v>23837942</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -21361,13 +21361,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D411" t="n">
         <v>79</v>
       </c>
       <c r="E411" t="n">
-        <v>994952</v>
+        <v>996792</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416754</v>
+        <v>416757</v>
       </c>
       <c r="D477" t="n">
         <v>70500</v>
       </c>
       <c r="E477" t="n">
-        <v>725253751</v>
+        <v>725262336</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292111</v>
+        <v>292120</v>
       </c>
       <c r="D484" t="n">
         <v>42567</v>
       </c>
       <c r="E484" t="n">
-        <v>1771052582</v>
+        <v>1771132448</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230706</v>
+        <v>230708</v>
       </c>
       <c r="D487" t="n">
         <v>33849</v>
       </c>
       <c r="E487" t="n">
-        <v>1821668003</v>
+        <v>1821759004</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25798,13 +25798,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>40859</v>
+        <v>40860</v>
       </c>
       <c r="D498" t="n">
         <v>7972</v>
       </c>
       <c r="E498" t="n">
-        <v>194519587</v>
+        <v>194557004</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62187</v>
+        <v>62188</v>
       </c>
       <c r="D509" t="n">
         <v>11277</v>
       </c>
       <c r="E509" t="n">
-        <v>299015841</v>
+        <v>299059595</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71191</v>
+        <v>71195</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287435462</v>
+        <v>287589147</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25082</v>
+        <v>25083</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92493053</v>
+        <v>92541885</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -32071,13 +32071,13 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>30120</v>
+        <v>30121</v>
       </c>
       <c r="D621" t="n">
         <v>5930</v>
       </c>
       <c r="E621" t="n">
-        <v>163612704</v>
+        <v>163621818</v>
       </c>
       <c r="F621" t="inlineStr">
         <is>
@@ -34009,13 +34009,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>163437</v>
+        <v>163438</v>
       </c>
       <c r="D659" t="n">
         <v>36203</v>
       </c>
       <c r="E659" t="n">
-        <v>278430785</v>
+        <v>278431354</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73205</v>
+        <v>73207</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367188525</v>
+        <v>367202185</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -46351,13 +46351,13 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>81810</v>
+        <v>81811</v>
       </c>
       <c r="D901" t="n">
         <v>13203</v>
       </c>
       <c r="E901" t="n">
-        <v>443371787</v>
+        <v>443377982</v>
       </c>
       <c r="F901" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79087</v>
+        <v>79088</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>391826225</v>
+        <v>391827725</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
